--- a/data/trans_camb/P1805_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1805_2016_2023-Edad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.545584797967048</v>
+        <v>2.545584797967049</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>3.461955103151845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.975347155954155</v>
+        <v>2.975347155954156</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4707939028089309</v>
+        <v>-0.3680172099854355</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3883017123761489</v>
+        <v>0.03523125559349872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8141594490331684</v>
+        <v>0.5902503343460583</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.387427042363235</v>
+        <v>7.090416169867369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.952151123046988</v>
+        <v>7.296515254928076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.98429666621314</v>
+        <v>5.807791598024246</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>1.292144398557534</v>
+        <v>1.292144398557535</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>1.672182787179278</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3897057941561247</v>
+        <v>-0.257906089520926</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1145083486718123</v>
+        <v>-0.2584624083385041</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2337833168532668</v>
+        <v>0.1242448267367623</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.691466842292392</v>
+        <v>5.90619122049675</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.978255487264414</v>
+        <v>5.852681962440313</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.504350374365716</v>
+        <v>4.08091744840385</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.43630839618834</v>
+        <v>1.436308396188339</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1.825713485965843</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3736096471014392</v>
+        <v>-0.3591579912774576</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2959635655185282</v>
+        <v>-0.3166152163154157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2589216339741744</v>
+        <v>0.2627798373047308</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.877857368184453</v>
+        <v>4.031132844588897</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.236200739718594</v>
+        <v>4.273079126100248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.514520931546643</v>
+        <v>3.278916659694935</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3126277588051399</v>
+        <v>-0.3299433472756815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1529289375463115</v>
+        <v>-0.1499675065971255</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05023240481162743</v>
+        <v>0.08500400828325223</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.250567063478525</v>
+        <v>5.683677344713304</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.228482971824452</v>
+        <v>3.368453592999817</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.736048815613108</v>
+        <v>2.671417814211308</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.347113184303646</v>
+        <v>1.347113184303645</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1.171463059913896</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7312295640136486</v>
+        <v>-0.7513814915968382</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8540153665225487</v>
+        <v>-0.6476685672967007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1723751152762332</v>
+        <v>-0.2746630175515175</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.615136735878725</v>
+        <v>3.455648946672334</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.080825627394124</v>
+        <v>3.323909323212849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.791879008939413</v>
+        <v>2.779202177709256</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.518403540223868</v>
+        <v>0.5184035402238677</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.3639218614292728</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2257135237472085</v>
+        <v>-0.2636432588580865</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.222974567134735</v>
+        <v>-0.1643036190103215</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.06538734883298046</v>
+        <v>-0.08566001952952212</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.18914712523412</v>
+        <v>1.825178595350996</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.275508289297931</v>
+        <v>1.456990130347046</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.207012154534991</v>
+        <v>1.235290376311465</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>3.349310297883763</v>
+        <v>3.349310297883762</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3528679497942993</v>
+        <v>0.3528679497943006</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1.839688553375186</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.3405739820207</v>
+        <v>1.277143629011394</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.677152545621043</v>
+        <v>-1.911589836028649</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3155189322057953</v>
+        <v>0.2978142300733468</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.849792246415945</v>
+        <v>5.532443834555006</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.298641123098418</v>
+        <v>2.269403037912204</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.203231499154119</v>
+        <v>3.148521251268693</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>1.765688860231662</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.08394822422561604</v>
+        <v>0.08394822422561637</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6026155029491814</v>
+        <v>0.6026155029491816</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3964162823757187</v>
+        <v>0.4187117092695741</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2953544914030716</v>
+        <v>-0.3435472136282955</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07316284929961943</v>
+        <v>0.05696311230521683</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.786976840282996</v>
+        <v>4.554447547704894</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8411246722987521</v>
+        <v>0.7926715265108697</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.38321016519392</v>
+        <v>1.244116550341078</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>1.189051841177279</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.432253968441728</v>
+        <v>-0.4322539684417273</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.3408667701195904</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8083063784316773</v>
+        <v>-0.5793703587581777</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.143928569949709</v>
+        <v>-2.913670271651286</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.298685480613047</v>
+        <v>-1.289358828502038</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.913835643021751</v>
+        <v>3.043237789111626</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.880953736815577</v>
+        <v>1.88170060115898</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.890967559392133</v>
+        <v>1.753126186178319</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>0.6904144422158266</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.07886364617643948</v>
+        <v>-0.07886364617643936</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.09369287071635263</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3601861866271027</v>
+        <v>-0.2716673394866126</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4223914792432558</v>
+        <v>-0.4120968810097643</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2809433777109469</v>
+        <v>-0.2787616282097674</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.865237485719182</v>
+        <v>3.919205636981236</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5223938122659351</v>
+        <v>0.5117863260635335</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7179375061348677</v>
+        <v>0.6616280964673918</v>
       </c>
     </row>
     <row r="34">
@@ -1097,10 +1097,10 @@
         <v>-0.2429847448622818</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-1.122715157811327</v>
+        <v>-1.122715157811328</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.7371549081320382</v>
+        <v>-0.7371549081320379</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.719757662423863</v>
+        <v>-1.947704416118437</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.870881588638792</v>
+        <v>-4.287895360401012</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.463538731497587</v>
+        <v>-2.490106589066529</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.9452370799837255</v>
+        <v>0.8886638257133854</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.333402581137914</v>
+        <v>1.179234507219067</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.7090511689731931</v>
+        <v>0.5092812078962835</v>
       </c>
     </row>
     <row r="37">
@@ -1148,10 +1148,10 @@
         <v>-0.2187278144488088</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.2567939807791922</v>
+        <v>-0.2567939807791925</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2594770498446671</v>
+        <v>-0.259477049844667</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8563340154668692</v>
+        <v>-0.8655314972093404</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5966661152630633</v>
+        <v>-0.6348019345439947</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6037367810984504</v>
+        <v>-0.5963288938119133</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.162809355415431</v>
+        <v>2.717000737865973</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5697100010994588</v>
+        <v>0.5128198049130946</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4384515289282887</v>
+        <v>0.2949289712658653</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.435663041307904</v>
+        <v>-2.462226537615376</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.157915614049536</v>
+        <v>-5.177668784490524</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.411521177091935</v>
+        <v>-3.237752945991727</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.166151460991812</v>
+        <v>1.108909384325974</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.3524442870720859</v>
+        <v>0.1143188706755018</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.1553223059063607</v>
+        <v>0.17366876844482</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
         <v>-0.4625423383624259</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4325700478098419</v>
+        <v>-0.432570047809842</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8745757042352073</v>
+        <v>-0.8902710419506751</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7683856050385405</v>
+        <v>-0.7405655825523066</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7099423545422663</v>
+        <v>-0.7046230833845033</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.974092471289451</v>
+        <v>3.051423877654109</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1797581167162861</v>
+        <v>0.09195938502525663</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.07695526231649885</v>
+        <v>0.106203659859862</v>
       </c>
     </row>
     <row r="46">
@@ -1309,7 +1309,7 @@
         <v>1.517566618254029</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0.5157012408370409</v>
+        <v>0.5157012408370403</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>1.008490763548013</v>
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.6347391708265527</v>
+        <v>0.7285146142061286</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4047806697749067</v>
+        <v>-0.3231442115391571</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.3597619760336012</v>
+        <v>0.3175531219497087</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.417701726965138</v>
+        <v>2.405364940099407</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.354869952745645</v>
+        <v>1.424775091194098</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.656962688019791</v>
+        <v>1.583209338103273</v>
       </c>
     </row>
     <row r="49">
@@ -1360,7 +1360,7 @@
         <v>0.8435793032639817</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.1396017032914884</v>
+        <v>0.1396017032914882</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.3644661337819515</v>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2709902370488516</v>
+        <v>0.3470860500290565</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.09606228478765068</v>
+        <v>-0.0820704599263422</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1163419655835749</v>
+        <v>0.1001271226924576</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.585779851178696</v>
+        <v>1.615614529007066</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4122381365592078</v>
+        <v>0.4424478199690148</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6757303614028838</v>
+        <v>0.6231168856276331</v>
       </c>
     </row>
     <row r="52">
